--- a/natmiOut/OldD2/LR-pairs_lrc2p/Slit3-Robo4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Slit3-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.730360065378714</v>
+        <v>0.8417399999999999</v>
       </c>
       <c r="H2">
-        <v>0.730360065378714</v>
+        <v>1.68348</v>
       </c>
       <c r="I2">
-        <v>0.01123674315430048</v>
+        <v>0.0119744574213572</v>
       </c>
       <c r="J2">
-        <v>0.01123674315430048</v>
+        <v>0.008423523143208028</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.2397564608694</v>
+        <v>64.3542805</v>
       </c>
       <c r="N2">
-        <v>64.2397564608694</v>
+        <v>128.708561</v>
       </c>
       <c r="O2">
-        <v>0.6463041687137466</v>
+        <v>0.6389470558360469</v>
       </c>
       <c r="P2">
-        <v>0.6463041687137466</v>
+        <v>0.5413393761575827</v>
       </c>
       <c r="Q2">
-        <v>46.91815272867324</v>
+        <v>54.16957206807</v>
       </c>
       <c r="R2">
-        <v>46.91815272867324</v>
+        <v>216.67828827228</v>
       </c>
       <c r="S2">
-        <v>0.007262353943390052</v>
+        <v>0.007651044314610284</v>
       </c>
       <c r="T2">
-        <v>0.007262353943390052</v>
+        <v>0.004559984763393194</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.730360065378714</v>
+        <v>0.8417399999999999</v>
       </c>
       <c r="H3">
-        <v>0.730360065378714</v>
+        <v>1.68348</v>
       </c>
       <c r="I3">
-        <v>0.01123674315430048</v>
+        <v>0.0119744574213572</v>
       </c>
       <c r="J3">
-        <v>0.01123674315430048</v>
+        <v>0.008423523143208028</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>35.1557906678413</v>
+        <v>0.03297533333333334</v>
       </c>
       <c r="N3">
-        <v>35.1557906678413</v>
+        <v>0.098926</v>
       </c>
       <c r="O3">
-        <v>0.3536958312862533</v>
+        <v>0.0003273984571787046</v>
       </c>
       <c r="P3">
-        <v>0.3536958312862533</v>
+        <v>0.00041607596813832</v>
       </c>
       <c r="Q3">
-        <v>25.67638557060496</v>
+        <v>0.02775665708</v>
       </c>
       <c r="R3">
-        <v>25.67638557060496</v>
+        <v>0.16653994248</v>
       </c>
       <c r="S3">
-        <v>0.003974389210910423</v>
+        <v>3.920418885304436E-06</v>
       </c>
       <c r="T3">
-        <v>0.003974389210910423</v>
+        <v>3.504825546945825E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.7889745212973</v>
+        <v>0.8417399999999999</v>
       </c>
       <c r="H4">
-        <v>52.7889745212973</v>
+        <v>1.68348</v>
       </c>
       <c r="I4">
-        <v>0.8121694711869955</v>
+        <v>0.0119744574213572</v>
       </c>
       <c r="J4">
-        <v>0.8121694711869955</v>
+        <v>0.008423523143208028</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>64.2397564608694</v>
+        <v>0.03088066666666667</v>
       </c>
       <c r="N4">
-        <v>64.2397564608694</v>
+        <v>0.092642</v>
       </c>
       <c r="O4">
-        <v>0.6463041687137466</v>
+        <v>0.0003066013774937787</v>
       </c>
       <c r="P4">
-        <v>0.6463041687137466</v>
+        <v>0.0003896458953184223</v>
       </c>
       <c r="Q4">
-        <v>3391.150867067178</v>
+        <v>0.02599349236</v>
       </c>
       <c r="R4">
-        <v>3391.150867067178</v>
+        <v>0.15596095416</v>
       </c>
       <c r="S4">
-        <v>0.5249085149301943</v>
+        <v>3.671385140128718E-06</v>
       </c>
       <c r="T4">
-        <v>0.5249085149301943</v>
+        <v>3.282191216870743E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.7889745212973</v>
+        <v>0.8417399999999999</v>
       </c>
       <c r="H5">
-        <v>52.7889745212973</v>
+        <v>1.68348</v>
       </c>
       <c r="I5">
-        <v>0.8121694711869955</v>
+        <v>0.0119744574213572</v>
       </c>
       <c r="J5">
-        <v>0.8121694711869955</v>
+        <v>0.008423523143208028</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>35.1557906678413</v>
+        <v>36.25707166666667</v>
       </c>
       <c r="N5">
-        <v>35.1557906678413</v>
+        <v>108.771215</v>
       </c>
       <c r="O5">
-        <v>0.3536958312862533</v>
+        <v>0.3599814808690655</v>
       </c>
       <c r="P5">
-        <v>0.3536958312862533</v>
+        <v>0.4574842668934998</v>
       </c>
       <c r="Q5">
-        <v>1855.838137840736</v>
+        <v>30.5190275047</v>
       </c>
       <c r="R5">
-        <v>1855.838137840736</v>
+        <v>183.1141650282</v>
       </c>
       <c r="S5">
-        <v>0.2872609562568011</v>
+        <v>0.004310582915143735</v>
       </c>
       <c r="T5">
-        <v>0.2872609562568011</v>
+        <v>0.003853629309830954</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0206525426694897</v>
+        <v>0.8417399999999999</v>
       </c>
       <c r="H6">
-        <v>0.0206525426694897</v>
+        <v>1.68348</v>
       </c>
       <c r="I6">
-        <v>0.0003177437108913572</v>
+        <v>0.0119744574213572</v>
       </c>
       <c r="J6">
-        <v>0.0003177437108913572</v>
+        <v>0.008423523143208028</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>64.2397564608694</v>
+        <v>0.044061</v>
       </c>
       <c r="N6">
-        <v>64.2397564608694</v>
+        <v>0.08812200000000001</v>
       </c>
       <c r="O6">
-        <v>0.6463041687137466</v>
+        <v>0.0004374634602152387</v>
       </c>
       <c r="P6">
-        <v>0.6463041687137466</v>
+        <v>0.0003706350854606983</v>
       </c>
       <c r="Q6">
-        <v>1.326714311385732</v>
+        <v>0.03708790614</v>
       </c>
       <c r="R6">
-        <v>1.326714311385732</v>
+        <v>0.14835162456</v>
       </c>
       <c r="S6">
-        <v>0.0002053590849316596</v>
+        <v>5.238387577746964E-06</v>
       </c>
       <c r="T6">
-        <v>0.0002053590849316596</v>
+        <v>3.122053220063078E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0206525426694897</v>
+        <v>57.09845533333333</v>
       </c>
       <c r="H7">
-        <v>0.0206525426694897</v>
+        <v>171.295366</v>
       </c>
       <c r="I7">
-        <v>0.0003177437108913572</v>
+        <v>0.8122734124721006</v>
       </c>
       <c r="J7">
-        <v>0.0003177437108913572</v>
+        <v>0.8570998644624763</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.1557906678413</v>
+        <v>64.3542805</v>
       </c>
       <c r="N7">
-        <v>35.1557906678413</v>
+        <v>128.708561</v>
       </c>
       <c r="O7">
-        <v>0.3536958312862533</v>
+        <v>0.6389470558360469</v>
       </c>
       <c r="P7">
-        <v>0.3536958312862533</v>
+        <v>0.5413393761575827</v>
       </c>
       <c r="Q7">
-        <v>0.7260564668472402</v>
+        <v>3674.530010638055</v>
       </c>
       <c r="R7">
-        <v>0.7260564668472402</v>
+        <v>22047.18006382833</v>
       </c>
       <c r="S7">
-        <v>0.0001123846259596975</v>
+        <v>0.5189997054329476</v>
       </c>
       <c r="T7">
-        <v>0.0001123846259596975</v>
+        <v>0.4639819059328656</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,184 +906,184 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0733340348819515</v>
+        <v>57.09845533333333</v>
       </c>
       <c r="H8">
-        <v>0.0733340348819515</v>
+        <v>171.295366</v>
       </c>
       <c r="I8">
-        <v>0.001128259544160199</v>
+        <v>0.8122734124721006</v>
       </c>
       <c r="J8">
-        <v>0.001128259544160199</v>
+        <v>0.8570998644624763</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>64.2397564608694</v>
+        <v>0.03297533333333334</v>
       </c>
       <c r="N8">
-        <v>64.2397564608694</v>
+        <v>0.098926</v>
       </c>
       <c r="O8">
-        <v>0.6463041687137466</v>
+        <v>0.0003273984571787046</v>
       </c>
       <c r="P8">
-        <v>0.6463041687137466</v>
+        <v>0.00041607596813832</v>
       </c>
       <c r="Q8">
-        <v>4.710960541109467</v>
+        <v>1.882840597435111</v>
       </c>
       <c r="R8">
-        <v>4.710960541109467</v>
+        <v>16.945565376916</v>
       </c>
       <c r="S8">
-        <v>0.000729198846781808</v>
+        <v>0.0002659370620506473</v>
       </c>
       <c r="T8">
-        <v>0.000729198846781808</v>
+        <v>0.0003566186558974477</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0733340348819515</v>
+        <v>57.09845533333333</v>
       </c>
       <c r="H9">
-        <v>0.0733340348819515</v>
+        <v>171.295366</v>
       </c>
       <c r="I9">
-        <v>0.001128259544160199</v>
+        <v>0.8122734124721006</v>
       </c>
       <c r="J9">
-        <v>0.001128259544160199</v>
+        <v>0.8570998644624763</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>35.1557906678413</v>
+        <v>0.03088066666666667</v>
       </c>
       <c r="N9">
-        <v>35.1557906678413</v>
+        <v>0.092642</v>
       </c>
       <c r="O9">
-        <v>0.3536958312862533</v>
+        <v>0.0003066013774937787</v>
       </c>
       <c r="P9">
-        <v>0.3536958312862533</v>
+        <v>0.0003896458953184223</v>
       </c>
       <c r="Q9">
-        <v>2.578115979138059</v>
+        <v>1.763238366330222</v>
       </c>
       <c r="R9">
-        <v>2.578115979138059</v>
+        <v>15.869145296972</v>
       </c>
       <c r="S9">
-        <v>0.0003990606973783908</v>
+        <v>0.0002490441471655183</v>
       </c>
       <c r="T9">
-        <v>0.0003990606973783908</v>
+        <v>0.00033396544406578</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.84226313486372</v>
+        <v>57.09845533333333</v>
       </c>
       <c r="H10">
-        <v>1.84226313486372</v>
+        <v>171.295366</v>
       </c>
       <c r="I10">
-        <v>0.02834360564109693</v>
+        <v>0.8122734124721006</v>
       </c>
       <c r="J10">
-        <v>0.02834360564109693</v>
+        <v>0.8570998644624763</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>64.2397564608694</v>
+        <v>36.25707166666667</v>
       </c>
       <c r="N10">
-        <v>64.2397564608694</v>
+        <v>108.771215</v>
       </c>
       <c r="O10">
-        <v>0.6463041687137466</v>
+        <v>0.3599814808690655</v>
       </c>
       <c r="P10">
-        <v>0.6463041687137466</v>
+        <v>0.4574842668934998</v>
       </c>
       <c r="Q10">
-        <v>118.3465351204832</v>
+        <v>2070.222787076632</v>
       </c>
       <c r="R10">
-        <v>118.3465351204832</v>
+        <v>18632.00508368969</v>
       </c>
       <c r="S10">
-        <v>0.01831859048221941</v>
+        <v>0.292403385892276</v>
       </c>
       <c r="T10">
-        <v>0.01831859048221941</v>
+        <v>0.392109703148134</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.84226313486372</v>
+        <v>57.09845533333333</v>
       </c>
       <c r="H11">
-        <v>1.84226313486372</v>
+        <v>171.295366</v>
       </c>
       <c r="I11">
-        <v>0.02834360564109693</v>
+        <v>0.8122734124721006</v>
       </c>
       <c r="J11">
-        <v>0.02834360564109693</v>
+        <v>0.8570998644624763</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>35.1557906678413</v>
+        <v>0.044061</v>
       </c>
       <c r="N11">
-        <v>35.1557906678413</v>
+        <v>0.08812200000000001</v>
       </c>
       <c r="O11">
-        <v>0.3536958312862533</v>
+        <v>0.0004374634602152387</v>
       </c>
       <c r="P11">
-        <v>0.3536958312862533</v>
+        <v>0.0003706350854606983</v>
       </c>
       <c r="Q11">
-        <v>64.76621712435002</v>
+        <v>2.515815040442</v>
       </c>
       <c r="R11">
-        <v>64.76621712435002</v>
+        <v>15.094890242652</v>
       </c>
       <c r="S11">
-        <v>0.01002501515887752</v>
+        <v>0.000355339937660885</v>
       </c>
       <c r="T11">
-        <v>0.01002501515887752</v>
+        <v>0.0003176712815134029</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,114 +1157,1230 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.54190254826049</v>
+        <v>0.02523366666666666</v>
       </c>
       <c r="H12">
-        <v>9.54190254826049</v>
+        <v>0.07570099999999999</v>
       </c>
       <c r="I12">
-        <v>0.1468041767625555</v>
+        <v>0.000358970070431155</v>
       </c>
       <c r="J12">
-        <v>0.1468041767625555</v>
+        <v>0.0003787803392163797</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>64.2397564608694</v>
+        <v>64.3542805</v>
       </c>
       <c r="N12">
-        <v>64.2397564608694</v>
+        <v>128.708561</v>
       </c>
       <c r="O12">
-        <v>0.6463041687137466</v>
+        <v>0.6389470558360469</v>
       </c>
       <c r="P12">
-        <v>0.6463041687137466</v>
+        <v>0.5413393761575827</v>
       </c>
       <c r="Q12">
-        <v>612.969495873603</v>
+        <v>1.623894462710167</v>
       </c>
       <c r="R12">
-        <v>612.969495873603</v>
+        <v>9.743366776260999</v>
       </c>
       <c r="S12">
-        <v>0.09488015142622935</v>
+        <v>0.0002293628696352449</v>
       </c>
       <c r="T12">
-        <v>0.09488015142622935</v>
+        <v>0.0002050487125321525</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.02523366666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.07570099999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.000358970070431155</v>
+      </c>
+      <c r="J13">
+        <v>0.0003787803392163797</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03297533333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.098926</v>
+      </c>
+      <c r="O13">
+        <v>0.0003273984571787046</v>
+      </c>
+      <c r="P13">
+        <v>0.00041607596813832</v>
+      </c>
+      <c r="Q13">
+        <v>0.0008320885695555555</v>
+      </c>
+      <c r="R13">
+        <v>0.007488797125999999</v>
+      </c>
+      <c r="S13">
+        <v>1.175262472324911E-07</v>
+      </c>
+      <c r="T13">
+        <v>1.576013963512165E-07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.02523366666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.07570099999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.000358970070431155</v>
+      </c>
+      <c r="J14">
+        <v>0.0003787803392163797</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.03088066666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.092642</v>
+      </c>
+      <c r="O14">
+        <v>0.0003066013774937787</v>
+      </c>
+      <c r="P14">
+        <v>0.0003896458953184223</v>
+      </c>
+      <c r="Q14">
+        <v>0.0007792324491111111</v>
+      </c>
+      <c r="R14">
+        <v>0.007013092041999999</v>
+      </c>
+      <c r="S14">
+        <v>1.100607180732309E-07</v>
+      </c>
+      <c r="T14">
+        <v>1.47590204402982E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.02523366666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.07570099999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.000358970070431155</v>
+      </c>
+      <c r="J15">
+        <v>0.0003787803392163797</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>36.25707166666667</v>
+      </c>
+      <c r="N15">
+        <v>108.771215</v>
+      </c>
+      <c r="O15">
+        <v>0.3599814808690655</v>
+      </c>
+      <c r="P15">
+        <v>0.4574842668934998</v>
+      </c>
+      <c r="Q15">
+        <v>0.914898860746111</v>
+      </c>
+      <c r="R15">
+        <v>8.234089746715</v>
+      </c>
+      <c r="S15">
+        <v>0.0001292225775414799</v>
+      </c>
+      <c r="T15">
+        <v>0.0001732860458000767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.02523366666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.07570099999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.000358970070431155</v>
+      </c>
+      <c r="J16">
+        <v>0.0003787803392163797</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.044061</v>
+      </c>
+      <c r="N16">
+        <v>0.08812200000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.0004374634602152387</v>
+      </c>
+      <c r="P16">
+        <v>0.0003706350854606983</v>
+      </c>
+      <c r="Q16">
+        <v>0.001111820587</v>
+      </c>
+      <c r="R16">
+        <v>0.006670923521999999</v>
+      </c>
+      <c r="S16">
+        <v>1.57036289124521E-07</v>
+      </c>
+      <c r="T16">
+        <v>1.403892833962952E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.08110000000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.2433</v>
+      </c>
+      <c r="I17">
+        <v>0.00115371551413984</v>
+      </c>
+      <c r="J17">
+        <v>0.001217384929278942</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>64.3542805</v>
+      </c>
+      <c r="N17">
+        <v>128.708561</v>
+      </c>
+      <c r="O17">
+        <v>0.6389470558360469</v>
+      </c>
+      <c r="P17">
+        <v>0.5413393761575827</v>
+      </c>
+      <c r="Q17">
+        <v>5.219132148550001</v>
+      </c>
+      <c r="R17">
+        <v>31.3147928913</v>
+      </c>
+      <c r="S17">
+        <v>0.000737163131032022</v>
+      </c>
+      <c r="T17">
+        <v>0.0006590183981595054</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.08110000000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.2433</v>
+      </c>
+      <c r="I18">
+        <v>0.00115371551413984</v>
+      </c>
+      <c r="J18">
+        <v>0.001217384929278942</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.03297533333333334</v>
+      </c>
+      <c r="N18">
+        <v>0.098926</v>
+      </c>
+      <c r="O18">
+        <v>0.0003273984571787046</v>
+      </c>
+      <c r="P18">
+        <v>0.00041607596813832</v>
+      </c>
+      <c r="Q18">
+        <v>0.002674299533333334</v>
+      </c>
+      <c r="R18">
+        <v>0.0240686958</v>
+      </c>
+      <c r="S18">
+        <v>3.777246793525196E-07</v>
+      </c>
+      <c r="T18">
+        <v>5.065246130467361E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.08110000000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.2433</v>
+      </c>
+      <c r="I19">
+        <v>0.00115371551413984</v>
+      </c>
+      <c r="J19">
+        <v>0.001217384929278942</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03088066666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.092642</v>
+      </c>
+      <c r="O19">
+        <v>0.0003066013774937787</v>
+      </c>
+      <c r="P19">
+        <v>0.0003896458953184223</v>
+      </c>
+      <c r="Q19">
+        <v>0.002504422066666667</v>
+      </c>
+      <c r="R19">
+        <v>0.0225397986</v>
+      </c>
+      <c r="S19">
+        <v>3.537307658712181E-07</v>
+      </c>
+      <c r="T19">
+        <v>4.743490407160476E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>9.54190254826049</v>
-      </c>
-      <c r="H13">
-        <v>9.54190254826049</v>
-      </c>
-      <c r="I13">
-        <v>0.1468041767625555</v>
-      </c>
-      <c r="J13">
-        <v>0.1468041767625555</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>35.1557906678413</v>
-      </c>
-      <c r="N13">
-        <v>35.1557906678413</v>
-      </c>
-      <c r="O13">
-        <v>0.3536958312862533</v>
-      </c>
-      <c r="P13">
-        <v>0.3536958312862533</v>
-      </c>
-      <c r="Q13">
-        <v>335.4531285595872</v>
-      </c>
-      <c r="R13">
-        <v>335.4531285595872</v>
-      </c>
-      <c r="S13">
-        <v>0.05192402533632614</v>
-      </c>
-      <c r="T13">
-        <v>0.05192402533632614</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.08110000000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.2433</v>
+      </c>
+      <c r="I20">
+        <v>0.00115371551413984</v>
+      </c>
+      <c r="J20">
+        <v>0.001217384929278942</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>36.25707166666667</v>
+      </c>
+      <c r="N20">
+        <v>108.771215</v>
+      </c>
+      <c r="O20">
+        <v>0.3599814808690655</v>
+      </c>
+      <c r="P20">
+        <v>0.4574842668934998</v>
+      </c>
+      <c r="Q20">
+        <v>2.940448512166667</v>
+      </c>
+      <c r="R20">
+        <v>26.46403660950001</v>
+      </c>
+      <c r="S20">
+        <v>0.0004153162192816748</v>
+      </c>
+      <c r="T20">
+        <v>0.0005569344518983719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.08110000000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.2433</v>
+      </c>
+      <c r="I21">
+        <v>0.00115371551413984</v>
+      </c>
+      <c r="J21">
+        <v>0.001217384929278942</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.044061</v>
+      </c>
+      <c r="N21">
+        <v>0.08812200000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.0004374634602152387</v>
+      </c>
+      <c r="P21">
+        <v>0.0003706350854606983</v>
+      </c>
+      <c r="Q21">
+        <v>0.003573347100000001</v>
+      </c>
+      <c r="R21">
+        <v>0.0214400826</v>
+      </c>
+      <c r="S21">
+        <v>5.047083809196177E-07</v>
+      </c>
+      <c r="T21">
+        <v>4.512055673018669E-07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.060578</v>
+      </c>
+      <c r="H22">
+        <v>6.181734</v>
+      </c>
+      <c r="I22">
+        <v>0.02931345014420769</v>
+      </c>
+      <c r="J22">
+        <v>0.03093115416527428</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>64.3542805</v>
+      </c>
+      <c r="N22">
+        <v>128.708561</v>
+      </c>
+      <c r="O22">
+        <v>0.6389470558360469</v>
+      </c>
+      <c r="P22">
+        <v>0.5413393761575827</v>
+      </c>
+      <c r="Q22">
+        <v>132.607014604129</v>
+      </c>
+      <c r="R22">
+        <v>795.6420876247739</v>
+      </c>
+      <c r="S22">
+        <v>0.01872974266603825</v>
+      </c>
+      <c r="T22">
+        <v>0.01674425169966359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.060578</v>
+      </c>
+      <c r="H23">
+        <v>6.181734</v>
+      </c>
+      <c r="I23">
+        <v>0.02931345014420769</v>
+      </c>
+      <c r="J23">
+        <v>0.03093115416527428</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.03297533333333334</v>
+      </c>
+      <c r="N23">
+        <v>0.098926</v>
+      </c>
+      <c r="O23">
+        <v>0.0003273984571787046</v>
+      </c>
+      <c r="P23">
+        <v>0.00041607596813832</v>
+      </c>
+      <c r="Q23">
+        <v>0.06794824640933333</v>
+      </c>
+      <c r="R23">
+        <v>0.611534217684</v>
+      </c>
+      <c r="S23">
+        <v>9.597178351798472E-06</v>
+      </c>
+      <c r="T23">
+        <v>1.286970991495212E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.060578</v>
+      </c>
+      <c r="H24">
+        <v>6.181734</v>
+      </c>
+      <c r="I24">
+        <v>0.02931345014420769</v>
+      </c>
+      <c r="J24">
+        <v>0.03093115416527428</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.03088066666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.092642</v>
+      </c>
+      <c r="O24">
+        <v>0.0003066013774937787</v>
+      </c>
+      <c r="P24">
+        <v>0.0003896458953184223</v>
+      </c>
+      <c r="Q24">
+        <v>0.06363202235866666</v>
+      </c>
+      <c r="R24">
+        <v>0.572688201228</v>
+      </c>
+      <c r="S24">
+        <v>8.987544193309282E-06</v>
+      </c>
+      <c r="T24">
+        <v>1.205219725796044E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.060578</v>
+      </c>
+      <c r="H25">
+        <v>6.181734</v>
+      </c>
+      <c r="I25">
+        <v>0.02931345014420769</v>
+      </c>
+      <c r="J25">
+        <v>0.03093115416527428</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>36.25707166666667</v>
+      </c>
+      <c r="N25">
+        <v>108.771215</v>
+      </c>
+      <c r="O25">
+        <v>0.3599814808690655</v>
+      </c>
+      <c r="P25">
+        <v>0.4574842668934998</v>
+      </c>
+      <c r="Q25">
+        <v>74.71052422075667</v>
+      </c>
+      <c r="R25">
+        <v>672.3947179868101</v>
+      </c>
+      <c r="S25">
+        <v>0.0105522991922934</v>
+      </c>
+      <c r="T25">
+        <v>0.01415051638747033</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.060578</v>
+      </c>
+      <c r="H26">
+        <v>6.181734</v>
+      </c>
+      <c r="I26">
+        <v>0.02931345014420769</v>
+      </c>
+      <c r="J26">
+        <v>0.03093115416527428</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.044061</v>
+      </c>
+      <c r="N26">
+        <v>0.08812200000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.0004374634602152387</v>
+      </c>
+      <c r="P26">
+        <v>0.0003706350854606983</v>
+      </c>
+      <c r="Q26">
+        <v>0.09079112725800001</v>
+      </c>
+      <c r="R26">
+        <v>0.544746763548</v>
+      </c>
+      <c r="S26">
+        <v>1.282356333093198E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.146417096744447E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>10.1875185</v>
+      </c>
+      <c r="H27">
+        <v>20.375037</v>
+      </c>
+      <c r="I27">
+        <v>0.1449259943777636</v>
+      </c>
+      <c r="J27">
+        <v>0.1019492929605459</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>64.3542805</v>
+      </c>
+      <c r="N27">
+        <v>128.708561</v>
+      </c>
+      <c r="O27">
+        <v>0.6389470558360469</v>
+      </c>
+      <c r="P27">
+        <v>0.5413393761575827</v>
+      </c>
+      <c r="Q27">
+        <v>655.6104231479393</v>
+      </c>
+      <c r="R27">
+        <v>2622.441692591757</v>
+      </c>
+      <c r="S27">
+        <v>0.09260003742178356</v>
+      </c>
+      <c r="T27">
+        <v>0.05518916665096857</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>10.1875185</v>
+      </c>
+      <c r="H28">
+        <v>20.375037</v>
+      </c>
+      <c r="I28">
+        <v>0.1449259943777636</v>
+      </c>
+      <c r="J28">
+        <v>0.1019492929605459</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.03297533333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.098926</v>
+      </c>
+      <c r="O28">
+        <v>0.0003273984571787046</v>
+      </c>
+      <c r="P28">
+        <v>0.00041607596813832</v>
+      </c>
+      <c r="Q28">
+        <v>0.335936818377</v>
+      </c>
+      <c r="R28">
+        <v>2.015620910262</v>
+      </c>
+      <c r="S28">
+        <v>4.744854696436942E-05</v>
+      </c>
+      <c r="T28">
+        <v>4.241865076957636E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>10.1875185</v>
+      </c>
+      <c r="H29">
+        <v>20.375037</v>
+      </c>
+      <c r="I29">
+        <v>0.1449259943777636</v>
+      </c>
+      <c r="J29">
+        <v>0.1019492929605459</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.03088066666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.092642</v>
+      </c>
+      <c r="O29">
+        <v>0.0003066013774937787</v>
+      </c>
+      <c r="P29">
+        <v>0.0003896458953184223</v>
+      </c>
+      <c r="Q29">
+        <v>0.314597362959</v>
+      </c>
+      <c r="R29">
+        <v>1.887584177754</v>
+      </c>
+      <c r="S29">
+        <v>4.443450951087796E-05</v>
+      </c>
+      <c r="T29">
+        <v>3.972412353269205E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>10.1875185</v>
+      </c>
+      <c r="H30">
+        <v>20.375037</v>
+      </c>
+      <c r="I30">
+        <v>0.1449259943777636</v>
+      </c>
+      <c r="J30">
+        <v>0.1019492929605459</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>36.25707166666667</v>
+      </c>
+      <c r="N30">
+        <v>108.771215</v>
+      </c>
+      <c r="O30">
+        <v>0.3599814808690655</v>
+      </c>
+      <c r="P30">
+        <v>0.4574842668934998</v>
+      </c>
+      <c r="Q30">
+        <v>369.3695883599925</v>
+      </c>
+      <c r="R30">
+        <v>2216.217530159955</v>
+      </c>
+      <c r="S30">
+        <v>0.05217067407252921</v>
+      </c>
+      <c r="T30">
+        <v>0.046640197550366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>10.1875185</v>
+      </c>
+      <c r="H31">
+        <v>20.375037</v>
+      </c>
+      <c r="I31">
+        <v>0.1449259943777636</v>
+      </c>
+      <c r="J31">
+        <v>0.1019492929605459</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.044061</v>
+      </c>
+      <c r="N31">
+        <v>0.08812200000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.0004374634602152387</v>
+      </c>
+      <c r="P31">
+        <v>0.0003706350854606983</v>
+      </c>
+      <c r="Q31">
+        <v>0.4488722526285</v>
+      </c>
+      <c r="R31">
+        <v>1.795489010514</v>
+      </c>
+      <c r="S31">
+        <v>6.339982697563071E-05</v>
+      </c>
+      <c r="T31">
+        <v>3.778598490908971E-05</v>
       </c>
     </row>
   </sheetData>
